--- a/budgetin/api/utils/template/import_template_strategy.xlsx
+++ b/budgetin/api/utils/template/import_template_strategy.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U071182\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U071182\Documents\04. BIT\Budgetin\Budgetin\budgetin\api\utils\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="strategy" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>strategy_name</t>
   </si>
@@ -351,30 +351,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -390,19 +380,19 @@
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
